--- a/io/uploads/new_employee.xlsx
+++ b/io/uploads/new_employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\workforce-data-platform\data_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\workforce-data-platform\io\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B478027-FC0C-4F4C-83F4-46045EBD57C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281166F5-E10E-4C0F-AB13-ACFCB44674F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>First Name</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Avatar</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Azbesty S.A.</t>
   </si>
 </sst>
 </file>
@@ -406,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +426,7 @@
     <col min="1" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +454,14 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -470,6 +485,12 @@
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>29504</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
